--- a/smart_planning/v4-scoring/evaluations.xlsx
+++ b/smart_planning/v4-scoring/evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,22 +520,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.94332587621179</v>
+        <v>36.25704956960523</v>
       </c>
       <c r="G2" t="n">
-        <v>14.61038961038961</v>
+        <v>15.25974025974026</v>
       </c>
       <c r="H2" t="n">
-        <v>26.62337662337662</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.623376623376623</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.165907215576281</v>
+        <v>7.456762216196498</v>
       </c>
     </row>
     <row r="3">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.246753246753246</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D3" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37.0142249596715</v>
+        <v>37.29469304328783</v>
       </c>
       <c r="G3" t="n">
-        <v>14.61038961038961</v>
+        <v>15.90909090909091</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -593,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5154639175257731</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.272727272727273</v>
+        <v>1.623376623376623</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.046124502371471</v>
+        <v>7.579837591372494</v>
       </c>
     </row>
     <row r="4">
@@ -618,43 +618,43 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36.18127786032689</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.25974025974026</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.623376623376623</v>
       </c>
-      <c r="D4" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>37.75813346858924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.66233766233766</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25.32467532467532</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.298701298701299</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.133835128764089</v>
+        <v>7.494242326027059</v>
       </c>
     </row>
     <row r="5">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.974025974025974</v>
+        <v>1.623376623376623</v>
       </c>
       <c r="D5" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>37.37697747320843</v>
+        <v>37.794192193497</v>
       </c>
       <c r="G5" t="n">
-        <v>14.28571428571428</v>
+        <v>13.31168831168831</v>
       </c>
       <c r="H5" t="n">
-        <v>23.7012987012987</v>
+        <v>24.67532467532467</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.922077922077922</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8.129617693606502</v>
+        <v>7.582322717732449</v>
       </c>
     </row>
     <row r="6">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="D6" t="n">
         <v>82.5</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>35.93854873592363</v>
+        <v>37.0142249596715</v>
       </c>
       <c r="G6" t="n">
-        <v>14.28571428571428</v>
+        <v>14.93506493506493</v>
       </c>
       <c r="H6" t="n">
-        <v>23.37662337662337</v>
+        <v>23.05194805194805</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.623376623376623</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.20467621207332</v>
+        <v>7.522317747111749</v>
       </c>
     </row>
     <row r="7">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.298701298701299</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D7" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36.15281700609484</v>
+        <v>37.6723262226092</v>
       </c>
       <c r="G7" t="n">
-        <v>14.28571428571428</v>
+        <v>16.88311688311688</v>
       </c>
       <c r="H7" t="n">
-        <v>25.64935064935065</v>
+        <v>24.67532467532467</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.272727272727273</v>
+        <v>2.922077922077922</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.127249809071373</v>
+        <v>7.456773269750284</v>
       </c>
     </row>
     <row r="8">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>37.8077034462786</v>
+        <v>36.75918427446072</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25974025974026</v>
+        <v>13.96103896103896</v>
       </c>
       <c r="H8" t="n">
-        <v>24.02597402597403</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -844,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.948051948051948</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>8.12346807940817</v>
+        <v>7.512150548087776</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.298701298701299</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D9" t="n">
         <v>82.5</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.74055526916563</v>
+        <v>36.97725605282465</v>
       </c>
       <c r="G9" t="n">
-        <v>14.28571428571428</v>
+        <v>15.58441558441558</v>
       </c>
       <c r="H9" t="n">
         <v>24.02597402597403</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.597402597402597</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>8.134390913794974</v>
+        <v>7.484117756780876</v>
       </c>
     </row>
     <row r="10">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.623376623376623</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D10" t="n">
         <v>82.5</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.58176448874123</v>
+        <v>38.60338789221642</v>
       </c>
       <c r="G10" t="n">
-        <v>12.66233766233766</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H10" t="n">
-        <v>24.02597402597403</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -942,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.272727272727273</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.165808811510823</v>
+        <v>7.491629034891828</v>
       </c>
     </row>
     <row r="11">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.974025974025974</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="D11" t="n">
         <v>82.5</v>
@@ -970,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.41803875856039</v>
+        <v>37.34500364697301</v>
       </c>
       <c r="G11" t="n">
-        <v>14.93506493506493</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H11" t="n">
-        <v>24.67532467532467</v>
+        <v>24.02597402597403</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.948051948051948</v>
+        <v>1.623376623376623</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.117798003171631</v>
+        <v>7.529745924889088</v>
       </c>
     </row>
     <row r="12">
@@ -1010,25 +1010,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.441558441558442</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35.78530313224191</v>
+        <v>37.33129058145473</v>
       </c>
       <c r="G12" t="n">
-        <v>15.25974025974026</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H12" t="n">
-        <v>26.2987012987013</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5050505050505051</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7.884099133170883</v>
+        <v>7.547595579304296</v>
       </c>
     </row>
     <row r="13">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.142857142857142</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D13" t="n">
         <v>82.5</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>37.23971651932491</v>
+        <v>36.68926886792453</v>
       </c>
       <c r="G13" t="n">
-        <v>14.61038961038961</v>
+        <v>12.66233766233766</v>
       </c>
       <c r="H13" t="n">
-        <v>25.32467532467532</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.948051948051948</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>7.903082168836093</v>
+        <v>7.524376796183187</v>
       </c>
     </row>
     <row r="14">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.06493506493507</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D14" t="n">
         <v>82.5</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>37.69493000652789</v>
+        <v>35.93377088305489</v>
       </c>
       <c r="G14" t="n">
         <v>13.31168831168831</v>
       </c>
       <c r="H14" t="n">
-        <v>24.67532467532467</v>
+        <v>25.64935064935065</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4975124378109453</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.948051948051948</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>7.828435231580717</v>
+        <v>7.526810871786861</v>
       </c>
     </row>
     <row r="15">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.818181818181817</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="D15" t="n">
         <v>82.5</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>37.10185252983818</v>
+        <v>36.38921800947868</v>
       </c>
       <c r="G15" t="n">
-        <v>13.63636363636363</v>
+        <v>14.93506493506493</v>
       </c>
       <c r="H15" t="n">
-        <v>24.02597402597403</v>
+        <v>24.35064935064935</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3.571428571428571</v>
+        <v>1.623376623376623</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>7.929005226908247</v>
+        <v>7.516066533836577</v>
       </c>
     </row>
     <row r="16">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.974025974025974</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D16" t="n">
         <v>82.5</v>
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.81888822474596</v>
+        <v>36.7219152854512</v>
       </c>
       <c r="G16" t="n">
-        <v>14.28571428571428</v>
+        <v>13.31168831168831</v>
       </c>
       <c r="H16" t="n">
-        <v>23.05194805194805</v>
+        <v>25.64935064935065</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1236,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.922077922077922</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8.177120636491669</v>
+        <v>7.484556906543427</v>
       </c>
     </row>
     <row r="17">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D17" t="n">
         <v>80</v>
@@ -1264,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.28215173660815</v>
+        <v>37.52727272727272</v>
       </c>
       <c r="G17" t="n">
         <v>14.61038961038961</v>
       </c>
       <c r="H17" t="n">
-        <v>23.05194805194805</v>
+        <v>25.32467532467532</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.262652405980365</v>
+        <v>7.530664118353286</v>
       </c>
     </row>
     <row r="18">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="D18" t="n">
         <v>82.5</v>
@@ -1313,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>37.82120883098082</v>
+        <v>37.41803875856039</v>
       </c>
       <c r="G18" t="n">
-        <v>15.25974025974026</v>
+        <v>12.66233766233766</v>
       </c>
       <c r="H18" t="n">
-        <v>24.02597402597403</v>
+        <v>23.05194805194805</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8.13430301367816</v>
+        <v>7.574176757140415</v>
       </c>
     </row>
     <row r="19">
@@ -1356,22 +1356,22 @@
         <v>0.974025974025974</v>
       </c>
       <c r="D19" t="n">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>37.04192318968045</v>
+        <v>36.10532579589407</v>
       </c>
       <c r="G19" t="n">
-        <v>15.25974025974026</v>
+        <v>12.98701298701299</v>
       </c>
       <c r="H19" t="n">
-        <v>25.97402597402597</v>
+        <v>23.7012987012987</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.5076142131979695</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.298701298701299</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>8.111955795796051</v>
+        <v>7.598677878093113</v>
       </c>
     </row>
     <row r="20">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.493506493506493</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="D20" t="n">
         <v>82.5</v>
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.79970104633782</v>
+        <v>37.69944879605454</v>
       </c>
       <c r="G20" t="n">
-        <v>13.31168831168831</v>
+        <v>15.58441558441558</v>
       </c>
       <c r="H20" t="n">
-        <v>22.72727272727273</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.305483028720626</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.623376623376623</v>
+        <v>1.948051948051948</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.041727313833452</v>
+        <v>7.508533759273781</v>
       </c>
     </row>
     <row r="21">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42.2077922077922</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D21" t="n">
         <v>82.5</v>
@@ -1460,34 +1460,34 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>35.8715938783128</v>
+        <v>36.76383981154299</v>
       </c>
       <c r="G21" t="n">
-        <v>14.28571428571428</v>
+        <v>15.58441558441558</v>
       </c>
       <c r="H21" t="n">
-        <v>22.07792207792208</v>
+        <v>23.7012987012987</v>
       </c>
       <c r="I21" t="n">
-        <v>1.639344262295082</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.273224043715847</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.298701298701299</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.883788874409071</v>
+        <v>7.494373886648947</v>
       </c>
     </row>
     <row r="22">
@@ -1500,43 +1500,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45.45454545454545</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="D22" t="n">
         <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>37.794192193497</v>
+        <v>37.55906084175329</v>
       </c>
       <c r="G22" t="n">
-        <v>13.96103896103896</v>
+        <v>15.25974025974026</v>
       </c>
       <c r="H22" t="n">
-        <v>18.83116883116883</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I22" t="n">
-        <v>1.675977653631285</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.412429378531074</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.922077922077922</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6.728982035955046</v>
+        <v>7.613713858736021</v>
       </c>
     </row>
     <row r="23">
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>44.8051948051948</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D23" t="n">
         <v>82.5</v>
@@ -1558,34 +1558,34 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.58174683912222</v>
+        <v>35.70840505950154</v>
       </c>
       <c r="G23" t="n">
-        <v>10.06493506493507</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H23" t="n">
-        <v>21.1038961038961</v>
+        <v>25.64935064935065</v>
       </c>
       <c r="I23" t="n">
-        <v>1.149425287356322</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.136363636363636</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.948051948051948</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>6.883206787149275</v>
+        <v>7.534855780281679</v>
       </c>
     </row>
     <row r="24">
@@ -1598,43 +1598,484 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>46.42857142857143</v>
+        <v>1.623376623376623</v>
       </c>
       <c r="D24" t="n">
         <v>82.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>37.96042178246425</v>
+        <v>37.80320034754905</v>
       </c>
       <c r="G24" t="n">
-        <v>10.06493506493507</v>
+        <v>13.96103896103896</v>
       </c>
       <c r="H24" t="n">
+        <v>22.4025974025974</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.246753246753246</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.517481243806674</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Planif-i-24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.298701298701299</v>
+      </c>
+      <c r="D25" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>36.83823529411765</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12.66233766233766</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25.64935064935065</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.543992131856664</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Planif-i-25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="D26" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>38.37876614060258</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23.05194805194805</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2525252525252525</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.298701298701299</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.554941276037038</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Planif-i-26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.623376623376623</v>
+      </c>
+      <c r="D27" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>37.4317138903052</v>
+      </c>
+      <c r="G27" t="n">
+        <v>13.31168831168831</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.623376623376623</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7.520907722872057</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Planif-i-27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="D28" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>37.2580527353736</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12.98701298701299</v>
+      </c>
+      <c r="H28" t="n">
         <v>24.02597402597403</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.8571428571428572</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>6.712718058583015</v>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.623376623376623</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7.554580797056257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Planif-i-28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="D29" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>35.78530313224191</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25.32467532467532</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7.531063250409227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Planif-i-29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="D30" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>36.18127786032689</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23.37662337662337</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7.580267098257767</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Planif-i-30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3246753246753247</v>
+      </c>
+      <c r="D31" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>36.57239902532673</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14.93506493506493</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23.05194805194805</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.623376623376623</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7.549716440483442</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Planif-i-31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.623376623376623</v>
+      </c>
+      <c r="D32" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>37.55906084175329</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.61038961038961</v>
+      </c>
+      <c r="H32" t="n">
+        <v>21.75324675324675</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.597402597402597</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7.548160435005242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Planif-i-32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.974025974025974</v>
+      </c>
+      <c r="D33" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>36.45979732228715</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14.61038961038961</v>
+      </c>
+      <c r="H33" t="n">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.623376623376623</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7.565372231902751</v>
       </c>
     </row>
   </sheetData>
